--- a/Test descriptions.xlsx
+++ b/Test descriptions.xlsx
@@ -44,16 +44,16 @@
     <t>This test opens the browser and navigate forward and back to a website, and refreshes it.</t>
   </si>
   <si>
-    <t>This test opens the browser and opens new windows and tabs.</t>
-  </si>
-  <si>
-    <t>This test opens the browser and interact with HTML elements (type, click, dropdown, checkbox).</t>
-  </si>
-  <si>
-    <t>This test opens the browser and resizes the window, take screenshots of different locations in the page by scrolling.</t>
-  </si>
-  <si>
     <t>This test opens the browser and goes to another page by searching, taking a screenshot of a text and saving the text to a file.</t>
+  </si>
+  <si>
+    <t>This test opens the browser and opens new windows and tabs and resizes the window.</t>
+  </si>
+  <si>
+    <t>This test opens the browser and interacts with HTML elements (type, click, dropdown, checkbox).</t>
+  </si>
+  <si>
+    <t>This test opens the browser , takes screenshot of action (double click),  takes screenshots of different locations in the page by scrolling</t>
   </si>
 </sst>
 </file>
@@ -113,13 +113,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -404,13 +407,15 @@
   <dimension ref="B2:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="37.09765625" customWidth="1"/>
-    <col min="3" max="3" width="44" customWidth="1"/>
+    <col min="1" max="1" width="8.796875" style="3"/>
+    <col min="2" max="2" width="37.09765625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="44" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="8.796875" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:3" ht="38.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -426,15 +431,15 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="38.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -442,7 +447,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="41.4" x14ac:dyDescent="0.25">
@@ -450,7 +455,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Test descriptions.xlsx
+++ b/Test descriptions.xlsx
@@ -41,19 +41,19 @@
     <t>testFive()</t>
   </si>
   <si>
-    <t>This test opens the browser and navigate forward and back to a website, and refreshes it.</t>
-  </si>
-  <si>
     <t>This test opens the browser and goes to another page by searching, taking a screenshot of a text and saving the text to a file.</t>
   </si>
   <si>
-    <t>This test opens the browser and opens new windows and tabs and resizes the window.</t>
-  </si>
-  <si>
     <t>This test opens the browser and interacts with HTML elements (type, click, dropdown, checkbox).</t>
   </si>
   <si>
-    <t>This test opens the browser , takes screenshot of action (double click),  takes screenshots of different locations in the page by scrolling</t>
+    <t>This test opens the browser and navigates forward and back to a website, refreshes it.</t>
+  </si>
+  <si>
+    <t>This test opens the browser and opens new windows and tabs, resizes the window.</t>
+  </si>
+  <si>
+    <t>This test opens the browser , takes screenshot of action (double click),  takes screenshots of different locations in the page by scrolling.</t>
   </si>
 </sst>
 </file>
@@ -423,7 +423,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -431,7 +431,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -447,7 +447,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="41.4" x14ac:dyDescent="0.25">
@@ -455,7 +455,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Test descriptions.xlsx
+++ b/Test descriptions.xlsx
@@ -53,7 +53,7 @@
     <t>This test opens the browser and opens new windows and tabs, resizes the window.</t>
   </si>
   <si>
-    <t>This test opens the browser , takes screenshot of action (double click),  takes screenshots of different locations in the page by scrolling.</t>
+    <t>This test opens the browser , takes screenshot of action (double click),  takes screenshots of different locations in the page by scrolling, alert.</t>
   </si>
 </sst>
 </file>

--- a/Test descriptions.xlsx
+++ b/Test descriptions.xlsx
@@ -407,7 +407,7 @@
   <dimension ref="B2:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
